--- a/USE Coursework/Plagian Bicycle/Also Data.xlsx
+++ b/USE Coursework/Plagian Bicycle/Also Data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work\git\COMP4Coursework\USE Coursework\Plagian Bicycle\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="7920"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
   <si>
     <r>
       <t>Salt Concentration (dm</t>
@@ -62,15 +57,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>AverageAverage</t>
-  </si>
-  <si>
-    <t>Average - AverageAverage</t>
-  </si>
-  <si>
-    <t>&lt;- Squared</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
@@ -80,7 +66,25 @@
     <t>AV</t>
   </si>
   <si>
-    <t>AV - 2SD</t>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Data - AV</t>
+  </si>
+  <si>
+    <t>^Sqaure^</t>
+  </si>
+  <si>
+    <t>Average of That</t>
+  </si>
+  <si>
+    <t>SD 3DP</t>
+  </si>
+  <si>
+    <t>AV -2SD</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -88,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -162,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -256,82 +260,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -339,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -365,51 +304,58 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +376,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -467,7 +413,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -476,26 +421,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -814,7 +739,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -822,12 +746,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="239637568"/>
-        <c:axId val="239637960"/>
+        <c:axId val="159683328"/>
+        <c:axId val="159685248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="239637568"/>
+        <c:axId val="159683328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,7 +784,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -868,26 +792,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -926,7 +830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239637960"/>
+        <c:crossAx val="159685248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -934,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239637960"/>
+        <c:axId val="159685248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +888,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -993,26 +896,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1045,7 +928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239637568"/>
+        <c:crossAx val="159683328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1059,7 +942,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1972,7 +1854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1980,43 +1862,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -2041,34 +1923,21 @@
       <c r="J2" s="2">
         <v>8</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="K2" s="22"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26">
         <v>0</v>
       </c>
       <c r="B3" s="3">
@@ -2101,23 +1970,38 @@
       <c r="K3" s="1">
         <v>7.875</v>
       </c>
-      <c r="N3" s="20">
-        <f>K3</f>
-        <v>7.875</v>
-      </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21">
-        <f>N3-O7</f>
-        <v>-1.6500000000000004</v>
-      </c>
-      <c r="Q3" s="21">
-        <f>P3^2</f>
-        <v>2.722500000000001</v>
-      </c>
-      <c r="R3" s="22"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="M3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>10</v>
+      </c>
+      <c r="R3" s="4">
+        <v>10</v>
+      </c>
+      <c r="S3" s="4">
+        <v>10</v>
+      </c>
+      <c r="T3" s="4">
+        <v>10</v>
+      </c>
+      <c r="U3" s="4">
+        <v>10</v>
+      </c>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -2148,23 +2032,38 @@
       <c r="K4" s="1">
         <v>9.75</v>
       </c>
-      <c r="N4" s="23">
-        <f t="shared" ref="N4:N37" si="0">K4</f>
-        <v>9.75</v>
-      </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24">
-        <f>N4-O7</f>
-        <v>0.22499999999999964</v>
-      </c>
-      <c r="Q4" s="24">
-        <f t="shared" ref="Q4:Q37" si="1">P4^2</f>
-        <v>5.0624999999999837E-2</v>
-      </c>
-      <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="M4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>10</v>
+      </c>
+      <c r="R4" s="4">
+        <v>10</v>
+      </c>
+      <c r="S4" s="4">
+        <v>10</v>
+      </c>
+      <c r="T4" s="4">
+        <v>10</v>
+      </c>
+      <c r="U4" s="4">
+        <v>10</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -2195,23 +2094,38 @@
       <c r="K5" s="1">
         <v>10</v>
       </c>
-      <c r="N5" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24">
-        <f>N5-O7</f>
-        <v>0.47499999999999964</v>
-      </c>
-      <c r="Q5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.22562499999999966</v>
-      </c>
-      <c r="R5" s="25"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="M5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
+        <v>0</v>
+      </c>
+      <c r="U5" s="12">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -2242,23 +2156,56 @@
       <c r="K6" s="1">
         <v>10</v>
       </c>
-      <c r="N6" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24">
-        <f>N6-O7</f>
-        <v>0.47499999999999964</v>
-      </c>
-      <c r="Q6" s="24">
-        <f t="shared" si="1"/>
-        <v>0.22562499999999966</v>
-      </c>
-      <c r="R6" s="25"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="M6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0</v>
+      </c>
+      <c r="T6" s="12">
+        <v>0</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -2289,48 +2236,62 @@
       <c r="K7" s="4">
         <v>10</v>
       </c>
-      <c r="N7" s="26">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O7" s="27">
-        <f>AVERAGE(N3:N7)</f>
-        <v>9.5250000000000004</v>
-      </c>
-      <c r="P7" s="27">
-        <f>N7-O7</f>
-        <v>0.47499999999999964</v>
-      </c>
-      <c r="Q7" s="27">
-        <f t="shared" si="1"/>
-        <v>0.22562499999999966</v>
-      </c>
-      <c r="R7" s="30">
-        <f>AVERAGE(Q3:Q7)</f>
-        <v>0.68999999999999984</v>
-      </c>
-      <c r="T7" s="31">
-        <f>R7</f>
-        <v>0.68999999999999984</v>
-      </c>
-      <c r="U7">
-        <f>O7+2*(T7)</f>
-        <v>10.904999999999999</v>
-      </c>
-      <c r="V7">
-        <f>U7- (Y7)</f>
-        <v>9.5250000000000004</v>
-      </c>
-      <c r="W7">
-        <f xml:space="preserve"> V7 - Y7</f>
-        <v>8.1450000000000014</v>
+      <c r="M7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <f>AVERAGE(N6:U6)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="9"/>
+      <c r="X7" s="16">
+        <v>10</v>
       </c>
       <c r="Y7">
-        <f>2*T7</f>
-        <v>1.3799999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>V7</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
+        <f>Y7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>X7 + (2*Y7)</f>
+        <v>10</v>
+      </c>
+      <c r="AB7">
+        <f>X7 - (2*Y7)</f>
+        <v>10</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>0.05</v>
       </c>
@@ -2364,43 +2325,42 @@
       <c r="K8" s="5">
         <v>6.125</v>
       </c>
-      <c r="N8" s="23">
-        <f t="shared" si="0"/>
-        <v>6.125</v>
-      </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24">
-        <f>N8-O12</f>
-        <v>-1.6749999999999998</v>
-      </c>
-      <c r="Q8" s="24">
-        <f t="shared" si="1"/>
-        <v>2.8056249999999996</v>
-      </c>
-      <c r="R8" s="29"/>
-      <c r="T8" s="31">
-        <f>R12</f>
-        <v>1.3225000000000002</v>
-      </c>
-      <c r="U8">
-        <f>O12+2*(T8)</f>
-        <v>10.445</v>
-      </c>
-      <c r="V8">
-        <f t="shared" ref="V8:V13" si="2">U8- (Y8)</f>
-        <v>7.8</v>
-      </c>
-      <c r="W8">
-        <f t="shared" ref="W8:W13" si="3" xml:space="preserve"> V8 - Y8</f>
-        <v>5.1549999999999994</v>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="17">
+        <v>9.375</v>
       </c>
       <c r="Y8">
-        <f t="shared" ref="Y8:Y13" si="4">2*T8</f>
-        <v>2.6450000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+        <f>V13</f>
+        <v>0.484375</v>
+      </c>
+      <c r="Z8" s="10">
+        <f t="shared" ref="Z8:Z13" si="0">Y8</f>
+        <v>0.484375</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" ref="AA8:AA13" si="1">X8 + (2*Y8)</f>
+        <v>10.34375</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ref="AB8:AB13" si="2">X8 - (2*Y8)</f>
+        <v>8.40625</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -2431,43 +2391,60 @@
       <c r="K9" s="5">
         <v>7</v>
       </c>
-      <c r="N9" s="23">
+      <c r="M9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="6">
+        <v>8</v>
+      </c>
+      <c r="O9" s="6">
+        <v>10</v>
+      </c>
+      <c r="P9" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>9</v>
+      </c>
+      <c r="R9" s="6">
+        <v>9</v>
+      </c>
+      <c r="S9" s="6">
+        <v>9</v>
+      </c>
+      <c r="T9" s="6">
+        <v>10</v>
+      </c>
+      <c r="U9" s="6">
+        <v>10</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="17">
+        <v>7.875</v>
+      </c>
+      <c r="Y9">
+        <f>V19</f>
+        <v>2.359375</v>
+      </c>
+      <c r="Z9" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24">
-        <f>N9-O12</f>
-        <v>-0.79999999999999982</v>
-      </c>
-      <c r="Q9" s="24">
+        <v>2.359375</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="1"/>
-        <v>0.63999999999999968</v>
-      </c>
-      <c r="R9" s="29"/>
-      <c r="T9" s="31">
-        <f>R17</f>
-        <v>2.1837499999999999</v>
-      </c>
-      <c r="U9">
-        <f>O17+2*(T9)</f>
-        <v>10.2675</v>
-      </c>
-      <c r="V9">
+        <v>12.59375</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="2"/>
-        <v>5.9</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="3"/>
-        <v>1.5325000000000006</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="4"/>
-        <v>4.3674999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+        <v>3.15625</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -2498,43 +2475,60 @@
       <c r="K10" s="5">
         <v>7.875</v>
       </c>
-      <c r="N10" s="23">
+      <c r="M10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="9">
+        <v>9.375</v>
+      </c>
+      <c r="O10" s="9">
+        <v>9.375</v>
+      </c>
+      <c r="P10" s="9">
+        <v>9.375</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>9.375</v>
+      </c>
+      <c r="R10" s="9">
+        <v>9.375</v>
+      </c>
+      <c r="S10" s="9">
+        <v>9.375</v>
+      </c>
+      <c r="T10" s="9">
+        <v>9.375</v>
+      </c>
+      <c r="U10" s="9">
+        <v>9.375</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <f>V25</f>
+        <v>4.5</v>
+      </c>
+      <c r="Z10" s="10">
         <f t="shared" si="0"/>
-        <v>7.875</v>
-      </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24">
-        <f>N10-O12</f>
-        <v>7.5000000000000178E-2</v>
-      </c>
-      <c r="Q10" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="1"/>
-        <v>5.6250000000000267E-3</v>
-      </c>
-      <c r="R10" s="29"/>
-      <c r="T10" s="31">
-        <f>R22</f>
-        <v>2.0187499999999998</v>
-      </c>
-      <c r="U10">
-        <f>O22+2*(T10)</f>
-        <v>8.0374999999999996</v>
-      </c>
-      <c r="V10">
+        <v>15</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="3"/>
-        <v>-3.7499999999999645E-2</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="4"/>
-        <v>4.0374999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+        <v>-3</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -2565,43 +2559,68 @@
       <c r="K11" s="5">
         <v>8.625</v>
       </c>
-      <c r="N11" s="23">
+      <c r="M11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="9">
+        <f>N9-N10</f>
+        <v>-1.375</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" ref="O11:U11" si="3">O9-O10</f>
+        <v>0.625</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.375</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.375</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.375</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="17">
+        <v>4.125</v>
+      </c>
+      <c r="Y11">
+        <f>V31</f>
+        <v>1.859375</v>
+      </c>
+      <c r="Z11" s="10">
         <f t="shared" si="0"/>
-        <v>8.625</v>
-      </c>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24">
-        <f>N11-O12</f>
-        <v>0.82500000000000018</v>
-      </c>
-      <c r="Q11" s="24">
+        <v>1.859375</v>
+      </c>
+      <c r="AA11">
         <f t="shared" si="1"/>
-        <v>0.68062500000000026</v>
-      </c>
-      <c r="R11" s="29"/>
-      <c r="T11" s="31">
-        <f>R27</f>
-        <v>1.02125</v>
-      </c>
-      <c r="U11">
-        <f>O27+2*(T11)</f>
-        <v>4.7675000000000001</v>
-      </c>
-      <c r="V11">
+        <v>7.84375</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="2"/>
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="3"/>
-        <v>0.68250000000000011</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="4"/>
-        <v>2.0425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+        <v>0.40625</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -2632,49 +2651,68 @@
       <c r="K12" s="6">
         <v>9.375</v>
       </c>
-      <c r="N12" s="26">
+      <c r="M12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="9">
+        <f>N11^2</f>
+        <v>1.890625</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" ref="O12:U12" si="4">O11^2</f>
+        <v>0.390625</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="4"/>
+        <v>0.390625</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="4"/>
+        <v>0.140625</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="4"/>
+        <v>0.140625</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="4"/>
+        <v>0.140625</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="4"/>
+        <v>0.390625</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="4"/>
+        <v>0.390625</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="17">
+        <v>1.875</v>
+      </c>
+      <c r="Y12">
+        <f>V37</f>
+        <v>1.359375</v>
+      </c>
+      <c r="Z12" s="10">
         <f t="shared" si="0"/>
-        <v>9.375</v>
-      </c>
-      <c r="O12" s="27">
-        <f t="shared" ref="O8:O37" si="5">AVERAGE(N8:N12)</f>
-        <v>7.8</v>
-      </c>
-      <c r="P12" s="27">
-        <f>N12-O12</f>
-        <v>1.5750000000000002</v>
-      </c>
-      <c r="Q12" s="27">
+        <v>1.359375</v>
+      </c>
+      <c r="AA12">
         <f t="shared" si="1"/>
-        <v>2.4806250000000007</v>
-      </c>
-      <c r="R12" s="30">
-        <f t="shared" ref="R8:R37" si="6">AVERAGE(Q8:Q12)</f>
-        <v>1.3225000000000002</v>
-      </c>
-      <c r="T12" s="31">
-        <f>R32</f>
-        <v>0.19624999999999998</v>
-      </c>
-      <c r="U12">
-        <f>O32+2*(T12)</f>
-        <v>1.4925000000000002</v>
-      </c>
-      <c r="V12">
+        <v>4.59375</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="3"/>
-        <v>0.70750000000000013</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="4"/>
-        <v>0.39249999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+        <v>-0.84375</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
         <v>0.1</v>
       </c>
       <c r="B13" s="3">
@@ -2707,43 +2745,47 @@
       <c r="K13" s="7">
         <v>3.75</v>
       </c>
-      <c r="N13" s="23">
+      <c r="M13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9">
+        <f>AVERAGE(N12:U12)</f>
+        <v>0.484375</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="Y13">
+        <f>V43</f>
+        <v>0.734375</v>
+      </c>
+      <c r="Z13" s="10">
         <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24">
-        <f>N13-O17</f>
-        <v>-2.1500000000000004</v>
-      </c>
-      <c r="Q13" s="24">
+        <v>0.734375</v>
+      </c>
+      <c r="AA13">
         <f t="shared" si="1"/>
-        <v>4.6225000000000014</v>
-      </c>
-      <c r="R13" s="29"/>
-      <c r="T13" s="31">
-        <f>R37</f>
-        <v>4.3749999999999997E-2</v>
-      </c>
-      <c r="U13">
-        <f>O37+2*(T13)</f>
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="V13">
+        <v>2.09375</v>
+      </c>
+      <c r="AB13">
         <f t="shared" si="2"/>
-        <v>0.375</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="3"/>
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="4"/>
-        <v>8.7499999999999994E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+        <v>-0.84375</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
       <c r="B14" s="3">
         <v>2</v>
       </c>
@@ -2774,23 +2816,20 @@
       <c r="K14" s="7">
         <v>4.75</v>
       </c>
-      <c r="N14" s="23">
-        <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24">
-        <f>N14-O17</f>
-        <v>-1.1500000000000004</v>
-      </c>
-      <c r="Q14" s="24">
-        <f t="shared" si="1"/>
-        <v>1.3225000000000009</v>
-      </c>
-      <c r="R14" s="29"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
       <c r="B15" s="3">
         <v>3</v>
       </c>
@@ -2821,23 +2860,38 @@
       <c r="K15" s="7">
         <v>6.25</v>
       </c>
-      <c r="N15" s="23">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24">
-        <f>N15-O17</f>
-        <v>0.34999999999999964</v>
-      </c>
-      <c r="Q15" s="24">
-        <f t="shared" si="1"/>
-        <v>0.12249999999999975</v>
-      </c>
-      <c r="R15" s="29"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="M15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="8">
+        <v>10</v>
+      </c>
+      <c r="O15" s="8">
+        <v>6</v>
+      </c>
+      <c r="P15" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>10</v>
+      </c>
+      <c r="R15" s="8">
+        <v>7</v>
+      </c>
+      <c r="S15" s="8">
+        <v>9</v>
+      </c>
+      <c r="T15" s="8">
+        <v>8</v>
+      </c>
+      <c r="U15" s="8">
+        <v>7</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
       <c r="B16" s="3">
         <v>4</v>
       </c>
@@ -2868,23 +2922,38 @@
       <c r="K16" s="7">
         <v>6.875</v>
       </c>
-      <c r="N16" s="23">
-        <f t="shared" si="0"/>
-        <v>6.875</v>
-      </c>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24">
-        <f>N16-O17</f>
-        <v>0.97499999999999964</v>
-      </c>
-      <c r="Q16" s="24">
-        <f t="shared" si="1"/>
-        <v>0.95062499999999928</v>
-      </c>
-      <c r="R16" s="29"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="M16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="9">
+        <v>7.875</v>
+      </c>
+      <c r="O16" s="9">
+        <v>7.875</v>
+      </c>
+      <c r="P16" s="9">
+        <v>7.875</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>7.875</v>
+      </c>
+      <c r="R16" s="9">
+        <v>7.875</v>
+      </c>
+      <c r="S16" s="9">
+        <v>7.875</v>
+      </c>
+      <c r="T16" s="9">
+        <v>7.875</v>
+      </c>
+      <c r="U16" s="9">
+        <v>7.875</v>
+      </c>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
       <c r="B17" s="3">
         <v>5</v>
       </c>
@@ -2915,28 +2984,45 @@
       <c r="K17" s="8">
         <v>7.875</v>
       </c>
-      <c r="N17" s="23">
-        <f t="shared" si="0"/>
-        <v>7.875</v>
-      </c>
-      <c r="O17" s="24">
-        <f t="shared" si="5"/>
-        <v>5.9</v>
-      </c>
-      <c r="P17" s="24">
-        <f>N17-O17</f>
-        <v>1.9749999999999996</v>
-      </c>
-      <c r="Q17" s="24">
-        <f t="shared" si="1"/>
-        <v>3.9006249999999985</v>
-      </c>
-      <c r="R17" s="29">
-        <f t="shared" si="6"/>
-        <v>2.1837499999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="9">
+        <f>N15-N16</f>
+        <v>2.125</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" ref="O17" si="5">O15-O16</f>
+        <v>-1.875</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" ref="P17" si="6">P15-P16</f>
+        <v>-1.875</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" ref="Q17" si="7">Q15-Q16</f>
+        <v>2.125</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" ref="R17" si="8">R15-R16</f>
+        <v>-0.875</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" ref="S17" si="9">S15-S16</f>
+        <v>1.125</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" ref="T17" si="10">T15-T16</f>
+        <v>0.125</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" ref="U17" si="11">U15-U16</f>
+        <v>-0.875</v>
+      </c>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>0.15</v>
       </c>
@@ -2970,23 +3056,46 @@
       <c r="K18" s="5">
         <v>2.125</v>
       </c>
-      <c r="N18" s="20">
-        <f t="shared" si="0"/>
-        <v>2.125</v>
-      </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21">
-        <f>N18-O22</f>
-        <v>-1.875</v>
-      </c>
-      <c r="Q18" s="21">
-        <f t="shared" si="1"/>
+      <c r="M18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="9">
+        <f>N17^2</f>
+        <v>4.515625</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" ref="O18" si="12">O17^2</f>
         <v>3.515625</v>
       </c>
-      <c r="R18" s="28"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="P18" s="9">
+        <f t="shared" ref="P18" si="13">P17^2</f>
+        <v>3.515625</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" ref="Q18" si="14">Q17^2</f>
+        <v>4.515625</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" ref="R18" si="15">R17^2</f>
+        <v>0.765625</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" ref="S18" si="16">S17^2</f>
+        <v>1.265625</v>
+      </c>
+      <c r="T18" s="9">
+        <f t="shared" ref="T18" si="17">T17^2</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" ref="U18" si="18">U17^2</f>
+        <v>0.765625</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
       <c r="B19" s="3">
         <v>2</v>
       </c>
@@ -3017,23 +3126,25 @@
       <c r="K19" s="5">
         <v>2.75</v>
       </c>
-      <c r="N19" s="23">
-        <f t="shared" si="0"/>
-        <v>2.75</v>
-      </c>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24">
-        <f>N19-O22</f>
-        <v>-1.25</v>
-      </c>
-      <c r="Q19" s="24">
-        <f t="shared" si="1"/>
-        <v>1.5625</v>
-      </c>
-      <c r="R19" s="29"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="M19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9">
+        <f>AVERAGE(N18:U18)</f>
+        <v>2.359375</v>
+      </c>
+      <c r="W19" s="9"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
       <c r="B20" s="3">
         <v>3</v>
       </c>
@@ -3064,23 +3175,20 @@
       <c r="K20" s="5">
         <v>4.125</v>
       </c>
-      <c r="N20" s="23">
-        <f t="shared" si="0"/>
-        <v>4.125</v>
-      </c>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24">
-        <f>N20-O22</f>
-        <v>0.125</v>
-      </c>
-      <c r="Q20" s="24">
-        <f t="shared" si="1"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="R20" s="29"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
       <c r="B21" s="3">
         <v>4</v>
       </c>
@@ -3111,23 +3219,38 @@
       <c r="K21" s="5">
         <v>5</v>
       </c>
-      <c r="N21" s="23">
-        <f t="shared" si="0"/>
+      <c r="M21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="6">
+        <v>8</v>
+      </c>
+      <c r="O21" s="6">
+        <v>8</v>
+      </c>
+      <c r="P21" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="6">
         <v>5</v>
       </c>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24">
-        <f>N21-O22</f>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R21" s="29"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+      <c r="R21" s="6">
+        <v>6</v>
+      </c>
+      <c r="S21" s="6">
+        <v>2</v>
+      </c>
+      <c r="T21" s="6">
+        <v>5</v>
+      </c>
+      <c r="U21" s="6">
+        <v>5</v>
+      </c>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
       <c r="B22" s="3">
         <v>5</v>
       </c>
@@ -3158,29 +3281,46 @@
       <c r="K22" s="6">
         <v>6</v>
       </c>
-      <c r="N22" s="26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O22" s="27">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="P22" s="27">
-        <f>N22-O22</f>
-        <v>2</v>
-      </c>
-      <c r="Q22" s="27">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R22" s="30">
-        <f t="shared" si="6"/>
-        <v>2.0187499999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="M22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="9">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="O22" s="9">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="P22" s="9">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="Q22" s="9">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="R22" s="9">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="S22" s="9">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="T22" s="9">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="U22" s="9">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
         <v>0.2</v>
       </c>
       <c r="B23" s="3">
@@ -3213,23 +3353,46 @@
       <c r="K23" s="7">
         <v>1.25</v>
       </c>
-      <c r="N23" s="23">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24">
-        <f>N23-O27</f>
-        <v>-1.4750000000000001</v>
-      </c>
-      <c r="Q23" s="24">
-        <f t="shared" si="1"/>
-        <v>2.1756250000000001</v>
-      </c>
-      <c r="R23" s="29"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="M23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="9">
+        <f>N21-N22</f>
+        <v>2</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" ref="O23" si="19">O21-O22</f>
+        <v>2</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" ref="P23" si="20">P21-P22</f>
+        <v>3</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" ref="Q23" si="21">Q21-Q22</f>
+        <v>-1</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" ref="R23" si="22">R21-R22</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" ref="S23" si="23">S21-S22</f>
+        <v>-4</v>
+      </c>
+      <c r="T23" s="9">
+        <f t="shared" ref="T23" si="24">T21-T22</f>
+        <v>-1</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" ref="U23" si="25">U21-U22</f>
+        <v>-1</v>
+      </c>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
       <c r="B24" s="3">
         <v>2</v>
       </c>
@@ -3260,23 +3423,46 @@
       <c r="K24" s="7">
         <v>2</v>
       </c>
-      <c r="N24" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24">
-        <f>N24-O27</f>
-        <v>-0.72500000000000009</v>
-      </c>
-      <c r="Q24" s="24">
-        <f t="shared" si="1"/>
-        <v>0.52562500000000012</v>
-      </c>
-      <c r="R24" s="29"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="M24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="9">
+        <f>N23^2</f>
+        <v>4</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" ref="O24" si="26">O23^2</f>
+        <v>4</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" ref="P24" si="27">P23^2</f>
+        <v>9</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" ref="Q24" si="28">Q23^2</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" ref="R24" si="29">R23^2</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" ref="S24" si="30">S23^2</f>
+        <v>16</v>
+      </c>
+      <c r="T24" s="9">
+        <f t="shared" ref="T24" si="31">T23^2</f>
+        <v>1</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" ref="U24" si="32">U23^2</f>
+        <v>1</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
       <c r="B25" s="3">
         <v>3</v>
       </c>
@@ -3307,23 +3493,25 @@
       <c r="K25" s="7">
         <v>2.875</v>
       </c>
-      <c r="N25" s="23">
-        <f t="shared" si="0"/>
-        <v>2.875</v>
-      </c>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24">
-        <f>N25-O27</f>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="Q25" s="24">
-        <f t="shared" si="1"/>
-        <v>2.2499999999999975E-2</v>
-      </c>
-      <c r="R25" s="29"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="M25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9">
+        <f>AVERAGE(N24:U24)</f>
+        <v>4.5</v>
+      </c>
+      <c r="W25" s="9"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
       <c r="B26" s="3">
         <v>4</v>
       </c>
@@ -3354,23 +3542,20 @@
       <c r="K26" s="7">
         <v>3.375</v>
       </c>
-      <c r="N26" s="23">
-        <f t="shared" si="0"/>
-        <v>3.375</v>
-      </c>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24">
-        <f>N26-O27</f>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="Q26" s="24">
-        <f t="shared" si="1"/>
-        <v>0.42249999999999988</v>
-      </c>
-      <c r="R26" s="29"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
       <c r="B27" s="3">
         <v>5</v>
       </c>
@@ -3401,28 +3586,37 @@
       <c r="K27" s="8">
         <v>4.125</v>
       </c>
-      <c r="N27" s="26">
-        <f t="shared" si="0"/>
-        <v>4.125</v>
-      </c>
-      <c r="O27" s="27">
-        <f t="shared" si="5"/>
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="P27" s="27">
-        <f>N27-O27</f>
-        <v>1.4</v>
-      </c>
-      <c r="Q27" s="27">
-        <f t="shared" si="1"/>
-        <v>1.9599999999999997</v>
-      </c>
-      <c r="R27" s="30">
-        <f t="shared" si="6"/>
-        <v>1.02125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="8">
+        <v>6</v>
+      </c>
+      <c r="O27" s="8">
+        <v>5</v>
+      </c>
+      <c r="P27" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>3</v>
+      </c>
+      <c r="R27" s="8">
+        <v>3</v>
+      </c>
+      <c r="S27" s="8">
+        <v>4</v>
+      </c>
+      <c r="T27" s="8">
+        <v>2</v>
+      </c>
+      <c r="U27" s="8">
+        <v>4</v>
+      </c>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>0.25</v>
       </c>
@@ -3456,23 +3650,38 @@
       <c r="K28" s="5">
         <v>0.625</v>
       </c>
-      <c r="N28" s="23">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24">
-        <f>N28-O32</f>
-        <v>-0.47500000000000009</v>
-      </c>
-      <c r="Q28" s="24">
-        <f t="shared" si="1"/>
-        <v>0.22562500000000008</v>
-      </c>
-      <c r="R28" s="29"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="M28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="14">
+        <v>4.125</v>
+      </c>
+      <c r="O28" s="14">
+        <v>4.125</v>
+      </c>
+      <c r="P28" s="14">
+        <v>4.125</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>4.125</v>
+      </c>
+      <c r="R28" s="14">
+        <v>4.125</v>
+      </c>
+      <c r="S28" s="14">
+        <v>4.125</v>
+      </c>
+      <c r="T28" s="14">
+        <v>4.125</v>
+      </c>
+      <c r="U28" s="14">
+        <v>4.125</v>
+      </c>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -3503,23 +3712,46 @@
       <c r="K29" s="5">
         <v>0.75</v>
       </c>
-      <c r="N29" s="23">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24">
-        <f>N29-O32</f>
-        <v>-0.35000000000000009</v>
-      </c>
-      <c r="Q29" s="24">
-        <f t="shared" si="1"/>
-        <v>0.12250000000000007</v>
-      </c>
-      <c r="R29" s="29"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="M29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="9">
+        <f>N27-N28</f>
+        <v>1.875</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" ref="O29" si="33">O27-O28</f>
+        <v>0.875</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" ref="P29" si="34">P27-P28</f>
+        <v>1.875</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" ref="Q29" si="35">Q27-Q28</f>
+        <v>-1.125</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" ref="R29" si="36">R27-R28</f>
+        <v>-1.125</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" ref="S29" si="37">S27-S28</f>
+        <v>-0.125</v>
+      </c>
+      <c r="T29" s="9">
+        <f t="shared" ref="T29" si="38">T27-T28</f>
+        <v>-2.125</v>
+      </c>
+      <c r="U29" s="9">
+        <f t="shared" ref="U29" si="39">U27-U28</f>
+        <v>-0.125</v>
+      </c>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -3550,23 +3782,46 @@
       <c r="K30" s="5">
         <v>1</v>
       </c>
-      <c r="N30" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24">
-        <f>N30-O32</f>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="Q30" s="24">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000018E-2</v>
-      </c>
-      <c r="R30" s="29"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="M30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="9">
+        <f>N29^2</f>
+        <v>3.515625</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" ref="O30" si="40">O29^2</f>
+        <v>0.765625</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" ref="P30" si="41">P29^2</f>
+        <v>3.515625</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" ref="Q30" si="42">Q29^2</f>
+        <v>1.265625</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" ref="R30" si="43">R29^2</f>
+        <v>1.265625</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" ref="S30" si="44">S29^2</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" ref="T30" si="45">T29^2</f>
+        <v>4.515625</v>
+      </c>
+      <c r="U30" s="9">
+        <f t="shared" ref="U30" si="46">U29^2</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
       <c r="B31" s="3">
         <v>4</v>
       </c>
@@ -3597,23 +3852,25 @@
       <c r="K31" s="5">
         <v>1.25</v>
       </c>
-      <c r="N31" s="23">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24">
-        <f>N31-O32</f>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="Q31" s="24">
-        <f t="shared" si="1"/>
-        <v>2.2499999999999975E-2</v>
-      </c>
-      <c r="R31" s="29"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
+      <c r="M31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9">
+        <f>AVERAGE(N30:U30)</f>
+        <v>1.859375</v>
+      </c>
+      <c r="W31" s="9"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -3644,29 +3901,20 @@
       <c r="K32" s="6">
         <v>1.875</v>
       </c>
-      <c r="N32" s="23">
-        <f t="shared" si="0"/>
-        <v>1.875</v>
-      </c>
-      <c r="O32" s="24">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P32" s="24">
-        <f>N32-O32</f>
-        <v>0.77499999999999991</v>
-      </c>
-      <c r="Q32" s="24">
-        <f t="shared" si="1"/>
-        <v>0.60062499999999985</v>
-      </c>
-      <c r="R32" s="29">
-        <f>AVERAGE(Q28:Q32)</f>
-        <v>0.19624999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
         <v>0.3</v>
       </c>
       <c r="B33" s="3">
@@ -3699,23 +3947,38 @@
       <c r="K33" s="7">
         <v>0.125</v>
       </c>
-      <c r="N33" s="20">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21">
-        <f>N33-O37</f>
-        <v>-0.25</v>
-      </c>
-      <c r="Q33" s="21">
-        <f t="shared" si="1"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="R33" s="28"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="M33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="6">
+        <v>4</v>
+      </c>
+      <c r="O33" s="6">
+        <v>3</v>
+      </c>
+      <c r="P33" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>2</v>
+      </c>
+      <c r="S33" s="6">
+        <v>1</v>
+      </c>
+      <c r="T33" s="6">
+        <v>2</v>
+      </c>
+      <c r="U33" s="6">
+        <v>2</v>
+      </c>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
       <c r="B34" s="3">
         <v>2</v>
       </c>
@@ -3746,23 +4009,38 @@
       <c r="K34" s="7">
         <v>0.125</v>
       </c>
-      <c r="N34" s="23">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24">
-        <f>N34-O37</f>
-        <v>-0.25</v>
-      </c>
-      <c r="Q34" s="24">
-        <f t="shared" si="1"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="R34" s="29"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="M34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="15">
+        <v>1.875</v>
+      </c>
+      <c r="O34" s="15">
+        <v>1.875</v>
+      </c>
+      <c r="P34" s="15">
+        <v>1.875</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>1.875</v>
+      </c>
+      <c r="R34" s="15">
+        <v>1.875</v>
+      </c>
+      <c r="S34" s="15">
+        <v>1.875</v>
+      </c>
+      <c r="T34" s="15">
+        <v>1.875</v>
+      </c>
+      <c r="U34" s="15">
+        <v>1.875</v>
+      </c>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
       <c r="B35" s="3">
         <v>3</v>
       </c>
@@ -3793,23 +4071,46 @@
       <c r="K35" s="7">
         <v>0.5</v>
       </c>
-      <c r="N35" s="23">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24">
-        <f>N35-O37</f>
+      <c r="M35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="9">
+        <f>N33-N34</f>
+        <v>2.125</v>
+      </c>
+      <c r="O35" s="9">
+        <f t="shared" ref="O35" si="47">O33-O34</f>
+        <v>1.125</v>
+      </c>
+      <c r="P35" s="9">
+        <f t="shared" ref="P35" si="48">P33-P34</f>
+        <v>-0.875</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" ref="Q35" si="49">Q33-Q34</f>
+        <v>-1.875</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" ref="R35" si="50">R33-R34</f>
         <v>0.125</v>
       </c>
-      <c r="Q35" s="24">
-        <f t="shared" si="1"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="R35" s="29"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="S35" s="9">
+        <f t="shared" ref="S35" si="51">S33-S34</f>
+        <v>-0.875</v>
+      </c>
+      <c r="T35" s="9">
+        <f t="shared" ref="T35" si="52">T33-T34</f>
+        <v>0.125</v>
+      </c>
+      <c r="U35" s="9">
+        <f t="shared" ref="U35" si="53">U33-U34</f>
+        <v>0.125</v>
+      </c>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
       <c r="B36" s="3">
         <v>4</v>
       </c>
@@ -3840,23 +4141,46 @@
       <c r="K36" s="7">
         <v>0.5</v>
       </c>
-      <c r="N36" s="23">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24">
-        <f>N36-O37</f>
-        <v>0.125</v>
-      </c>
-      <c r="Q36" s="24">
-        <f t="shared" si="1"/>
+      <c r="M36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="9">
+        <f>N35^2</f>
+        <v>4.515625</v>
+      </c>
+      <c r="O36" s="9">
+        <f t="shared" ref="O36" si="54">O35^2</f>
+        <v>1.265625</v>
+      </c>
+      <c r="P36" s="9">
+        <f t="shared" ref="P36" si="55">P35^2</f>
+        <v>0.765625</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" ref="Q36" si="56">Q35^2</f>
+        <v>3.515625</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" ref="R36" si="57">R35^2</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="R36" s="29"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="S36" s="9">
+        <f t="shared" ref="S36" si="58">S35^2</f>
+        <v>0.765625</v>
+      </c>
+      <c r="T36" s="9">
+        <f t="shared" ref="T36" si="59">T35^2</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="U36" s="9">
+        <f t="shared" ref="U36" si="60">U35^2</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
       <c r="B37" s="3">
         <v>5</v>
       </c>
@@ -3887,26 +4211,185 @@
       <c r="K37" s="8">
         <v>0.625</v>
       </c>
-      <c r="N37" s="26">
-        <f t="shared" si="0"/>
+      <c r="M37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9">
+        <f>AVERAGE(N36:U36)</f>
+        <v>1.359375</v>
+      </c>
+      <c r="W37" s="9"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="8">
+        <v>2</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0</v>
+      </c>
+      <c r="P39" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8">
+        <v>1</v>
+      </c>
+      <c r="S39" s="8">
+        <v>0</v>
+      </c>
+      <c r="T39" s="8">
+        <v>0</v>
+      </c>
+      <c r="U39" s="8">
+        <v>0</v>
+      </c>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N40" s="9">
         <v>0.625</v>
       </c>
-      <c r="O37" s="27">
-        <f t="shared" si="5"/>
+      <c r="O40" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="R40" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="S40" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="T40" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="U40" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="9">
+        <f>N39-N40</f>
+        <v>1.375</v>
+      </c>
+      <c r="O41" s="9">
+        <f t="shared" ref="O41" si="61">O39-O40</f>
+        <v>-0.625</v>
+      </c>
+      <c r="P41" s="9">
+        <f t="shared" ref="P41" si="62">P39-P40</f>
+        <v>1.375</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" ref="Q41" si="63">Q39-Q40</f>
+        <v>-0.625</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" ref="R41" si="64">R39-R40</f>
         <v>0.375</v>
       </c>
-      <c r="P37" s="27">
-        <f>N37-O37</f>
-        <v>0.25</v>
-      </c>
-      <c r="Q37" s="27">
-        <f t="shared" si="1"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="R37" s="30">
-        <f t="shared" si="6"/>
-        <v>4.3749999999999997E-2</v>
-      </c>
+      <c r="S41" s="9">
+        <f t="shared" ref="S41" si="65">S39-S40</f>
+        <v>-0.625</v>
+      </c>
+      <c r="T41" s="9">
+        <f t="shared" ref="T41" si="66">T39-T40</f>
+        <v>-0.625</v>
+      </c>
+      <c r="U41" s="9">
+        <f t="shared" ref="U41" si="67">U39-U40</f>
+        <v>-0.625</v>
+      </c>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="9">
+        <f>N41^2</f>
+        <v>1.890625</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" ref="O42" si="68">O41^2</f>
+        <v>0.390625</v>
+      </c>
+      <c r="P42" s="9">
+        <f t="shared" ref="P42" si="69">P41^2</f>
+        <v>1.890625</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" ref="Q42" si="70">Q41^2</f>
+        <v>0.390625</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" ref="R42" si="71">R41^2</f>
+        <v>0.140625</v>
+      </c>
+      <c r="S42" s="9">
+        <f t="shared" ref="S42" si="72">S41^2</f>
+        <v>0.390625</v>
+      </c>
+      <c r="T42" s="9">
+        <f t="shared" ref="T42" si="73">T41^2</f>
+        <v>0.390625</v>
+      </c>
+      <c r="U42" s="9">
+        <f t="shared" ref="U42" si="74">U41^2</f>
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="V43" s="9">
+        <f>AVERAGE(N42:U42)</f>
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3915,12 +4398,12 @@
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3932,35 +4415,35 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="A1:K37"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="9" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -3985,10 +4468,10 @@
       <c r="J2" s="2">
         <v>8</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="26">
         <v>0</v>
       </c>
       <c r="B3" s="3">
@@ -4023,7 +4506,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -4056,7 +4539,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -4089,7 +4572,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -4122,7 +4605,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -4190,7 +4673,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -4223,7 +4706,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -4256,7 +4739,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -4289,7 +4772,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -4322,7 +4805,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="26">
         <v>0.1</v>
       </c>
       <c r="B13" s="3">
@@ -4357,7 +4840,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3">
         <v>2</v>
       </c>
@@ -4390,7 +4873,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="3">
         <v>3</v>
       </c>
@@ -4423,7 +4906,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="3">
         <v>4</v>
       </c>
@@ -4456,7 +4939,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="3">
         <v>5</v>
       </c>
@@ -4524,7 +5007,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="3">
         <v>2</v>
       </c>
@@ -4557,7 +5040,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="3">
         <v>3</v>
       </c>
@@ -4590,7 +5073,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="3">
         <v>4</v>
       </c>
@@ -4623,7 +5106,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="3">
         <v>5</v>
       </c>
@@ -4656,7 +5139,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="26">
         <v>0.2</v>
       </c>
       <c r="B23" s="3">
@@ -4691,7 +5174,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="3">
         <v>2</v>
       </c>
@@ -4724,7 +5207,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="3">
         <v>3</v>
       </c>
@@ -4757,7 +5240,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="3">
         <v>4</v>
       </c>
@@ -4790,7 +5273,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="3">
         <v>5</v>
       </c>
@@ -4858,7 +5341,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -4891,7 +5374,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -4924,7 +5407,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="3">
         <v>4</v>
       </c>
@@ -4957,7 +5440,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -4990,7 +5473,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
+      <c r="A33" s="26">
         <v>0.3</v>
       </c>
       <c r="B33" s="3">
@@ -5025,7 +5508,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="3">
         <v>2</v>
       </c>
@@ -5058,7 +5541,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="3">
         <v>3</v>
       </c>
@@ -5091,7 +5574,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="3">
         <v>4</v>
       </c>
@@ -5124,7 +5607,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="3">
         <v>5</v>
       </c>
@@ -5163,12 +5646,12 @@
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
